--- a/inputs/parameters.xlsx
+++ b/inputs/parameters.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qchasserieau\quetzal_quartz\quetzal_paris\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlary\python\quetzal_paris\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2012179A-7A4C-487C-8B47-7E4609EFB25D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750AF740-6456-49F9-AC55-7B19D9CF416F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="615" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="parameters" sheetId="1" r:id="rId1"/>
+    <sheet name="README" sheetId="2" r:id="rId1"/>
+    <sheet name="parameters" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="86">
   <si>
     <t>category</t>
   </si>
@@ -37,6 +49,342 @@
     <t>parent</t>
   </si>
   <si>
+    <t>preparation_logit</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>pt_mode</t>
+  </si>
+  <si>
+    <t>pt_path</t>
+  </si>
+  <si>
+    <t>analysis_mode_utility</t>
+  </si>
+  <si>
+    <t>how</t>
+  </si>
+  <si>
+    <t>preparation_footpaths</t>
+  </si>
+  <si>
+    <t>max_length</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>preparation_ntlegs</t>
+  </si>
+  <si>
+    <t>subway</t>
+  </si>
+  <si>
+    <t>car_owner</t>
+  </si>
+  <si>
+    <t>walk</t>
+  </si>
+  <si>
+    <t>bus</t>
+  </si>
+  <si>
+    <t>rail</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>pt_captive</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>Longueur maximale des liens de marche de type foothpath</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Vitesse de marche</t>
+  </si>
+  <si>
+    <t>km/h</t>
+  </si>
+  <si>
+    <t>Nombre d'accès à la route par centroide et nœuds</t>
+  </si>
+  <si>
+    <t>Méthode de calcul de la constante modale</t>
+  </si>
+  <si>
+    <t>min/pt</t>
+  </si>
+  <si>
+    <t>Valeur utilitaire du temps (Pour le calcul du facteur multiplication du temps de la fonction d'utilité)</t>
+  </si>
+  <si>
+    <t>Valeur monétaire du temps (Pour le calcul du facteur multiplication du coût de la fonction d'utilité)</t>
+  </si>
+  <si>
+    <t>$/hr</t>
+  </si>
+  <si>
+    <t>Facteur multiplicatif de l'utilité associé au mode</t>
+  </si>
+  <si>
+    <t>Coefficient du logit des modes PT</t>
+  </si>
+  <si>
+    <t>Coefficient du logit du nœud PT</t>
+  </si>
+  <si>
+    <t>Constante modale</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>Fichier de paramètre du modèle Quetzal Montréal</t>
+  </si>
+  <si>
+    <t>Créer un scénario :</t>
+  </si>
+  <si>
+    <t>Modifier les paramètres désirés</t>
+  </si>
+  <si>
+    <t>Ajouter un paramètre:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copier une rangée entière+insérer la rangé dans la table des paramètres. </t>
+  </si>
+  <si>
+    <t>Description des champs:</t>
+  </si>
+  <si>
+    <t>Gategory</t>
+  </si>
+  <si>
+    <t>Gatégorie (ou type) du paramètre. Fait généralement référence à une étape du modèle.</t>
+  </si>
+  <si>
+    <t>Nom du paramètre</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Période (PPAM, PPPM, HC, Soir ou Nuit). Si période spécifique. Si aucune periode n'est spécifiée, le paramètre sera utilisé par défaut pour les autres préiodes.</t>
+  </si>
+  <si>
+    <t>Description courte du paramètre</t>
+  </si>
+  <si>
+    <t>Description longue du paramètre</t>
+  </si>
+  <si>
+    <t>Remplir les champs de description du paramètre</t>
+  </si>
+  <si>
+    <t>Unité du paramètre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type </t>
+  </si>
+  <si>
+    <r>
+      <t>Type du paramètre (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ou </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La définition des scénarios fonctionne par héritage des paramètres du scénario parent. Les paramètres qui sont affichés </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>en gris</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sont des héritages alors que les paramètres </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>en noir</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ont manuellement été modifiés. </t>
+    </r>
+  </si>
+  <si>
+    <t>Appliquer la formule d'affichage automatique des paramètres sur l'ensemble des paramètres du scénario (p. ex. en selectionnant le premier paramètre et shift+clique gauche dans le coin bas-droite de la cellule). Le texte de toutes les cellules devrait être gris.</t>
+  </si>
+  <si>
+    <t>Étendre la table des scénarios afin de créer autant de nouveaux scénarios que désiré</t>
+  </si>
+  <si>
+    <t>Coefficient de pénalité de transfert</t>
+  </si>
+  <si>
+    <t>transfers</t>
+  </si>
+  <si>
+    <t>min/transfer</t>
+  </si>
+  <si>
+    <t>projet</t>
+  </si>
+  <si>
     <t>bus_speed_factor</t>
   </si>
   <si>
@@ -46,170 +394,59 @@
     <t>boarding_cost_wor</t>
   </si>
   <si>
+    <t xml:space="preserve">facteur </t>
+  </si>
+  <si>
+    <t>cout de la montée à vol d'oiseau</t>
+  </si>
+  <si>
+    <t>cout de la montée en marche sur la route</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>n_clusters</t>
+  </si>
+  <si>
+    <t>nombre de cluster pour otpimiser le calcul des footpaths</t>
+  </si>
+  <si>
+    <t>n_ntlegs</t>
+  </si>
+  <si>
     <t>max_ntleg_length</t>
   </si>
   <si>
-    <t>n_ntlegs</t>
-  </si>
-  <si>
-    <t>auxiliary</t>
-  </si>
-  <si>
-    <t>auxiliary_fixed_penalty_threshold</t>
-  </si>
-  <si>
-    <t>auxiliary_time_penalty_factor</t>
-  </si>
-  <si>
-    <t>auxiliary_price_penalty_factor</t>
+    <t>long_leg_speed</t>
+  </si>
+  <si>
+    <t>short_leg_speed</t>
+  </si>
+  <si>
+    <t>threshold</t>
+  </si>
+  <si>
+    <t>Longueur maximale des ntlefs</t>
+  </si>
+  <si>
+    <t>vitesses de parcours des ntleg après treshold</t>
+  </si>
+  <si>
+    <t>vitesses de parcours des ntleg avant treshold</t>
+  </si>
+  <si>
+    <t>séparation entre short et long ntlegs</t>
   </si>
   <si>
     <t>max</t>
-  </si>
-  <si>
-    <t>mode_utility</t>
-  </si>
-  <si>
-    <t>preparation_ntlegs</t>
-  </si>
-  <si>
-    <t>long_leg_speed</t>
-  </si>
-  <si>
-    <t>short_leg_speed</t>
-  </si>
-  <si>
-    <t>threshold</t>
-  </si>
-  <si>
-    <t>preparation_logit</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>transfers</t>
-  </si>
-  <si>
-    <t>mode</t>
-  </si>
-  <si>
-    <t>pt_mode</t>
-  </si>
-  <si>
-    <t>bus</t>
-  </si>
-  <si>
-    <t>pt_path</t>
-  </si>
-  <si>
-    <t>step_distribution</t>
-  </si>
-  <si>
-    <t>ratio</t>
-  </si>
-  <si>
-    <t>mobility</t>
-  </si>
-  <si>
-    <t>peak_hour</t>
-  </si>
-  <si>
-    <t>pt_share</t>
-  </si>
-  <si>
-    <t>paratransit</t>
-  </si>
-  <si>
-    <t>brt</t>
-  </si>
-  <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>unused_cars</t>
-  </si>
-  <si>
-    <t>analysis_mode_utility</t>
-  </si>
-  <si>
-    <t>how</t>
-  </si>
-  <si>
-    <t>speed</t>
-  </si>
-  <si>
-    <t>bus_dwell_factor</t>
-  </si>
-  <si>
-    <t>fare</t>
-  </si>
-  <si>
-    <t>preparation_footpaths</t>
-  </si>
-  <si>
-    <t>max_length</t>
-  </si>
-  <si>
-    <t>n_clusters</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>headway</t>
-  </si>
-  <si>
-    <t>step_generation</t>
-  </si>
-  <si>
-    <t>car_volume</t>
-  </si>
-  <si>
-    <t>pt_volume</t>
-  </si>
-  <si>
-    <t>pt_exponential_scale</t>
-  </si>
-  <si>
-    <t>pt_exponential_weight</t>
-  </si>
-  <si>
-    <t>pt_power_weight</t>
-  </si>
-  <si>
-    <t>pt_intrazonal_time</t>
-  </si>
-  <si>
-    <t>pt_power</t>
-  </si>
-  <si>
-    <t>car_intrazonal_time</t>
-  </si>
-  <si>
-    <t>car_power_weight</t>
-  </si>
-  <si>
-    <t>car_exponential_weight</t>
-  </si>
-  <si>
-    <t>car_exponential_scale</t>
-  </si>
-  <si>
-    <t>car_power</t>
-  </si>
-  <si>
-    <t>project</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,8 +581,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,8 +798,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -641,6 +926,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -686,8 +1121,73 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -733,8 +1233,38 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD22328"/>
+      <color rgb="FF91A564"/>
+      <color rgb="FF559BB4"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1042,571 +1572,846 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D2F1A5-8516-4229-9F02-DD71BF90B835}">
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.140625" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" style="20" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="25"/>
+    </row>
+    <row r="2" spans="1:2" s="19" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="27"/>
+    </row>
+    <row r="3" spans="1:2" s="19" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+    </row>
+    <row r="4" spans="1:2" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+    </row>
+    <row r="6" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="25"/>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
+        <v>1</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
+        <v>2</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>3</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
+        <v>1</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
+        <v>2</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21" style="10" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="13" width="21.85546875" customWidth="1"/>
+    <col min="14" max="14" width="22.85546875" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" customWidth="1"/>
+    <col min="22" max="22" width="16.140625" customWidth="1"/>
+    <col min="23" max="23" width="17.5703125" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="7" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="G1" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="7" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="G3">
+        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
+        <v>0.8</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="6">
+        <v>300</v>
+      </c>
+      <c r="G4">
+        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
+        <v>300</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+    </row>
+    <row r="5" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="6">
+        <v>300</v>
+      </c>
+      <c r="G5">
+        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3000</v>
+      </c>
+      <c r="G6">
+        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="6">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="6">
+        <v>3000</v>
+      </c>
+      <c r="G8">
+        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="6">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G9">
+        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="6">
+        <v>5000</v>
+      </c>
+      <c r="G10">
+        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="6">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="6">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="G12">
+        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="6">
+        <v>500</v>
+      </c>
+      <c r="G13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="6">
+        <v>-5.5000000000000003E-4</v>
+      </c>
+      <c r="G14">
+        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
+        <v>-5.5000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G15">
+        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="6">
+        <v>-0.25</v>
+      </c>
+      <c r="G16">
+        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G19">
+        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="13" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="6">
+        <v>12</v>
+      </c>
+      <c r="G21">
+        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="G23">
+        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="6">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="G24">
+        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="13" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="G26">
+        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="G27">
+        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="13" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B30" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C10">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23">
-        <v>-5.5000000000000003E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27">
-        <v>0.5</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28">
-        <v>0.1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33">
-        <v>80000</v>
-      </c>
-      <c r="D33">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34">
-        <v>74000</v>
-      </c>
-      <c r="D34">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="C30" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C46">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48">
-        <v>0.1</v>
+      <c r="D30" s="16"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" t="str">
+        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
+        <v>max</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <conditionalFormatting sqref="G3:G19">
+    <cfRule type="expression" dxfId="3" priority="491">
+      <formula>_xlfn.ISFORMULA(G3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G19">
+    <cfRule type="expression" dxfId="2" priority="463">
+      <formula>NOT(_xlfn.ISFORMULA(G3))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:G30">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>_xlfn.ISFORMULA(G20)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:G30">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>NOT(_xlfn.ISFORMULA(G20))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/inputs/parameters.xlsx
+++ b/inputs/parameters.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlary\python\quetzal_paris\inputs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750AF740-6456-49F9-AC55-7B19D9CF416F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
     <sheet name="parameters" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="84">
   <si>
     <t>category</t>
   </si>
@@ -112,9 +106,6 @@
     <t>unit</t>
   </si>
   <si>
-    <t>Longueur maximale des liens de marche de type foothpath</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
@@ -125,9 +116,6 @@
   </si>
   <si>
     <t>Nombre d'accès à la route par centroide et nœuds</t>
-  </si>
-  <si>
-    <t>Méthode de calcul de la constante modale</t>
   </si>
   <si>
     <t>min/pt</t>
@@ -385,33 +373,12 @@
     <t>projet</t>
   </si>
   <si>
-    <t>bus_speed_factor</t>
-  </si>
-  <si>
-    <t>boarding_cost_acf</t>
-  </si>
-  <si>
-    <t>boarding_cost_wor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facteur </t>
-  </si>
-  <si>
-    <t>cout de la montée à vol d'oiseau</t>
-  </si>
-  <si>
-    <t>cout de la montée en marche sur la route</t>
-  </si>
-  <si>
     <t>speed</t>
   </si>
   <si>
     <t>n_clusters</t>
   </si>
   <si>
-    <t>nombre de cluster pour otpimiser le calcul des footpaths</t>
-  </si>
-  <si>
     <t>n_ntlegs</t>
   </si>
   <si>
@@ -427,26 +394,47 @@
     <t>threshold</t>
   </si>
   <si>
-    <t>Longueur maximale des ntlefs</t>
-  </si>
-  <si>
-    <t>vitesses de parcours des ntleg après treshold</t>
-  </si>
-  <si>
-    <t>vitesses de parcours des ntleg avant treshold</t>
-  </si>
-  <si>
-    <t>séparation entre short et long ntlegs</t>
-  </si>
-  <si>
     <t>max</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Longueur maximale des liens de marche de type footpath</t>
+  </si>
+  <si>
+    <t>Nombre de cluster pour opimiser le calcul des footpaths</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Longueur maximale des liens de type ntlegs</t>
+  </si>
+  <si>
+    <t>Vitesses de parcours des ntleg après treshold</t>
+  </si>
+  <si>
+    <t>Vitesses de parcours des ntleg avant treshold</t>
+  </si>
+  <si>
+    <t>Séparation souple entre short et long ntlegs</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>Méthode de calcul de la constante modale ['main'|'min'|'max'|'mean'|'sum']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -583,13 +571,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1121,19 +1102,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1190,48 +1169,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -1319,7 +1298,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1371,7 +1350,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1565,160 +1544,160 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D2F1A5-8516-4229-9F02-DD71BF90B835}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="53.7109375" style="20" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="11.28515625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" style="18" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="23"/>
+    </row>
+    <row r="2" spans="1:2" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="25"/>
+    </row>
+    <row r="3" spans="1:2" s="17" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+    </row>
+    <row r="4" spans="1:2" s="17" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+    </row>
+    <row r="6" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="23"/>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="20">
+        <v>1</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="21">
+        <v>2</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <v>3</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="25"/>
-    </row>
-    <row r="2" spans="1:2" s="19" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="27"/>
-    </row>
-    <row r="3" spans="1:2" s="19" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-    </row>
-    <row r="4" spans="1:2" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-    </row>
-    <row r="6" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="25"/>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="24" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="20">
+        <v>1</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="20">
+        <v>2</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
-        <v>1</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
-        <v>2</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
-        <v>3</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
-        <v>1</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="22">
-        <v>2</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1731,24 +1710,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21" style="10" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="4" customWidth="1"/>
     <col min="7" max="7" width="18.140625" customWidth="1"/>
     <col min="8" max="13" width="21.85546875" customWidth="1"/>
     <col min="14" max="14" width="22.85546875" customWidth="1"/>
@@ -1763,652 +1742,663 @@
     <col min="24" max="24" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="7" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G3">
+        <f>HLOOKUP(G$2,$F$1:G$935,ROW(),FALSE)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <f>HLOOKUP(G$2,$F$1:G$935,ROW(),FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" s="7" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="C5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G5">
+        <f>HLOOKUP(G$2,$F$1:G$935,ROW(),FALSE)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="4">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <f>HLOOKUP(G$2,$F$1:G$935,ROW(),FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="4">
+        <v>5000</v>
+      </c>
+      <c r="G7">
+        <f>HLOOKUP(G$2,$F$1:G$935,ROW(),FALSE)</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="4">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <f>HLOOKUP(G$2,$F$1:G$935,ROW(),FALSE)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="4">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="G9">
+        <f>HLOOKUP(G$2,$F$1:G$935,ROW(),FALSE)</f>
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="G3">
-        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
-        <v>0.8</v>
-      </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-    </row>
-    <row r="4" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="10" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="6">
-        <v>300</v>
-      </c>
-      <c r="G4">
-        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
-        <v>300</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-    </row>
-    <row r="5" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="C10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="4">
+        <v>500</v>
+      </c>
+      <c r="G10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="4">
+        <v>-5.5000000000000003E-4</v>
+      </c>
+      <c r="G11">
+        <f>HLOOKUP(G$2,$F$1:G$935,ROW(),FALSE)</f>
+        <v>-5.5000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G12">
+        <f>HLOOKUP(G$2,$F$1:G$935,ROW(),FALSE)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="4">
+        <v>-0.25</v>
+      </c>
+      <c r="G13">
+        <f>HLOOKUP(G$2,$F$1:G$935,ROW(),FALSE)</f>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f>HLOOKUP(G$2,$F$1:G$935,ROW(),FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <f>HLOOKUP(G$2,$F$1:G$935,ROW(),FALSE)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G16">
+        <f>HLOOKUP(G$2,$F$1:G$935,ROW(),FALSE)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="11" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f>HLOOKUP(G$2,$F$1:G$935,ROW(),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="4">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <f>HLOOKUP(G$2,$F$1:G$935,ROW(),FALSE)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f>HLOOKUP(G$2,$F$1:G$935,ROW(),FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G20">
+        <f>HLOOKUP(G$2,$F$1:G$935,ROW(),FALSE)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="4">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <f>HLOOKUP(G$2,$F$1:G$935,ROW(),FALSE)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="11" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f>HLOOKUP(G$2,$F$1:G$935,ROW(),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G23">
+        <f>HLOOKUP(G$2,$F$1:G$935,ROW(),FALSE)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G24">
+        <f>HLOOKUP(G$2,$F$1:G$935,ROW(),FALSE)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <f>HLOOKUP(G$2,$F$1:G$935,ROW(),FALSE)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f>HLOOKUP(G$2,$F$1:G$935,ROW(),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="11" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="6">
-        <v>300</v>
-      </c>
-      <c r="G5">
-        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="6">
-        <v>3000</v>
-      </c>
-      <c r="G6">
-        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="6">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="6">
-        <v>3000</v>
-      </c>
-      <c r="G8">
-        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="6">
-        <v>5</v>
-      </c>
-      <c r="G9">
-        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="6">
-        <v>5000</v>
-      </c>
-      <c r="G10">
-        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="6">
-        <v>7</v>
-      </c>
-      <c r="G11">
-        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="6">
-        <v>3</v>
-      </c>
-      <c r="G12">
-        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="6">
-        <v>500</v>
-      </c>
-      <c r="G13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="6">
-        <v>-5.5000000000000003E-4</v>
-      </c>
-      <c r="G14">
-        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
-        <v>-5.5000000000000003E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G15">
-        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="6">
-        <v>-0.25</v>
-      </c>
-      <c r="G16">
-        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="6">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="G18">
-        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="G19">
-        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="13" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="6">
-        <v>12</v>
-      </c>
-      <c r="G21">
-        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="6">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="G23">
-        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="6">
-        <v>10</v>
-      </c>
-      <c r="G24">
-        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="13" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="12">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="G26">
-        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="G27">
-        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="G28">
-        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="6">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="13" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G30" t="str">
-        <f>HLOOKUP(G$2,$F$1:G$938,ROW(),FALSE)</f>
+      <c r="G27" t="str">
+        <f>HLOOKUP(G$2,$F$1:G$935,ROW(),FALSE)</f>
         <v>max</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="G3:G19">
+  <conditionalFormatting sqref="G3:G16">
     <cfRule type="expression" dxfId="3" priority="491">
       <formula>_xlfn.ISFORMULA(G3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G19">
+  <conditionalFormatting sqref="G3:G16">
     <cfRule type="expression" dxfId="2" priority="463">
       <formula>NOT(_xlfn.ISFORMULA(G3))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20:G30">
+  <conditionalFormatting sqref="G17:G27">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>_xlfn.ISFORMULA(G20)</formula>
+      <formula>_xlfn.ISFORMULA(G17)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20:G30">
+  <conditionalFormatting sqref="G17:G27">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>NOT(_xlfn.ISFORMULA(G20))</formula>
+      <formula>NOT(_xlfn.ISFORMULA(G17))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
